--- a/src/test/resources/xlsxFiles/updatelog.xlsx
+++ b/src/test/resources/xlsxFiles/updatelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihu_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\xlsxFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ED0997-D192-4F50-B482-DC6B7C2DBCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289BB43-B3F4-4D5F-AAB1-7DCBCDB09FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1"/>
@@ -260,12 +260,16 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>DbChangeLog</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updateDbChangeLog</t>
+      <t>ChangeLog</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateChangeLog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateChangeLog</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -783,10 +787,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -794,7 +798,7 @@
     <col min="4" max="4" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16.5">
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
@@ -805,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="147">
@@ -831,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
